--- a/data/raw/applicants_data/2013_1_b4.xlsx
+++ b/data/raw/applicants_data/2013_1_b4.xlsx
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
         <v>70</v>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +485,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
         <v>80</v>
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
         <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C11" t="n">
         <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>85</v>
+      </c>
+      <c r="C12" t="n">
         <v>95</v>
       </c>
-      <c r="C12" t="n">
-        <v>45</v>
-      </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
         <v>65</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>65</v>
+      </c>
+      <c r="C15" t="n">
         <v>95</v>
       </c>
-      <c r="C15" t="n">
-        <v>60</v>
-      </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
